--- a/biology/Médecine/Hermann_Strauss/Hermann_Strauss.xlsx
+++ b/biology/Médecine/Hermann_Strauss/Hermann_Strauss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hermann Strauss, né le 28 avril 1868 à Heilbronn et mort le 17 octobre 1944 au camp de concentration de Theresienstadt[1], est un interniste allemand, qui a été directeur du département de médecine interne à l'hôpital juif de Berlin (de) entre 1910 et 1942. Il est l'auteur de vingt-cinq livres et de plus de 400 contributions à des publications médicales. Il a notamment donné son nom à une canule qu'il a conçue en 1898 et présentée dans un livre publié en 1902[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hermann Strauss, né le 28 avril 1868 à Heilbronn et mort le 17 octobre 1944 au camp de concentration de Theresienstadt, est un interniste allemand, qui a été directeur du département de médecine interne à l'hôpital juif de Berlin (de) entre 1910 et 1942. Il est l'auteur de vingt-cinq livres et de plus de 400 contributions à des publications médicales. Il a notamment donné son nom à une canule qu'il a conçue en 1898 et présentée dans un livre publié en 1902.
 </t>
         </is>
       </c>
